--- a/medicine/Handicap/Association_AMMi/Association_AMMi.xlsx
+++ b/medicine/Handicap/Association_AMMi/Association_AMMi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Association contre les Maladies Mitochondriales ou Association AMMi est une association loi de 1901 créée en 1998. L'association est reconnue d'Assistance et de Bienfaisance.
 </t>
@@ -511,10 +523,12 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les objectifs de l'AMMi sont notamment d’informer et d’aider les familles de patients atteints de maladies mitochondriales,  de soutenir la recherche sur ces maladies, de solliciter l’aide des pouvoirs publics et de faire circuler l'information sur les avancées médicales[1],[2],[3],[4].
-L’association a été créée en 1998 par une jeune femme éprouvée par la perte de son enfant[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les objectifs de l'AMMi sont notamment d’informer et d’aider les familles de patients atteints de maladies mitochondriales,  de soutenir la recherche sur ces maladies, de solliciter l’aide des pouvoirs publics et de faire circuler l'information sur les avancées médicales.
+L’association a été créée en 1998 par une jeune femme éprouvée par la perte de son enfant,.
 </t>
         </is>
       </c>
@@ -545,11 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Évènements
-L'AMMi organise un certain nombre d'évènements dans le but de collecter des fonds, par exemple des compétitions sportives[5],[6],[7], des repas solidaires[8], des fêtes et des soirées dansantes[9], des concerts[10].
-Guy Lecluyse, comédien français, est parrain de l'association[11].
-Conseil Scientifique
-L'AMMi a constitué en son sein un Conseil scientifique. Il est constitué de cliniciens et de chercheurs :
+          <t>Évènements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMMi organise un certain nombre d'évènements dans le but de collecter des fonds, par exemple des compétitions sportives des repas solidaires, des fêtes et des soirées dansantes, des concerts.
+Guy Lecluyse, comédien français, est parrain de l'association.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Association_AMMi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_AMMi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conseil Scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'AMMi a constitué en son sein un Conseil scientifique. Il est constitué de cliniciens et de chercheurs :
 Pr Arnold Munnich, généticien à l'Hôpital Necker à Paris
 Pr Brigitte Chabrol, neuropédiatre à l'Hôpital de la Timone à Marseille
 Pr Hélène Dollfus, ophtalmologiste à l'Hôpital de Hautepierre à Strasbourg
@@ -560,36 +614,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Association_AMMi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Association_AMMi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Récompenses</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille d'or de l'Académie Nationale de Médecine, 17 décembre 2013[4].</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -611,10 +635,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Médaille d'or de l'Académie Nationale de Médecine, 17 décembre 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Association_AMMi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_AMMi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Association contre les Maladies Mitochondriales (préf. Arnold Munnich), Ne me dites pas : Maladie mitochondriales : des malades prennent la parole, AMMi, 2005, 153 p. (ISBN 978-2-9525244-0-7)
 Journal 'Le Petit A.M.Mi qui informe les adhérents de l'actualité de l'association</t>
